--- a/biology/Zoologie/Cerocranus_extremus/Cerocranus_extremus.xlsx
+++ b/biology/Zoologie/Cerocranus_extremus/Cerocranus_extremus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerocranus extremus est une espèce de coléoptères de la famille des Curculionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte, qui mesure entre 4 et 5,5 mm[1], fabrique une sorte de corne sur son thorax à partir d'une sécrétion cireuse[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte, qui mesure entre 4 et 5,5 mm, fabrique une sorte de corne sur son thorax à partir d'une sécrétion cireuse,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique de Nouvelle-Calédonie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique de Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cerocranus extremus Kuschel (d), 2008[4].
-Cerocranus extremus appartient à la tribu des Cranopoeini, caractérisée par la sécrétion d'une matière cireuse au niveau du thorax[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cerocranus extremus Kuschel (d), 2008.
+Cerocranus extremus appartient à la tribu des Cranopoeini, caractérisée par la sécrétion d'une matière cireuse au niveau du thorax.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) G. Kuschel, « New tribe, new genus and species for an Australasian weevil group with notes and keys [Coleoptera, Curculionidae] », Revue française d'entomologie, Paris, vol. 30, nos 2/4,‎ 2008, p. 41-66 (ISSN 0181-0863).</t>
         </is>
